--- a/App/Code/Číselníky.xlsx
+++ b/App/Code/Číselníky.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\CubeIt_Testing\App\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA966304-9B03-4389-9F62-471398ECD8BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75FEBBB-598E-4FE4-B7C6-27C16A2CBE65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2FBDA2C7-5936-426B-B675-4482C1F8B095}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Vampire</t>
   </si>
@@ -156,13 +156,52 @@
   </si>
   <si>
     <t>red_window</t>
+  </si>
+  <si>
+    <t>Typy slotů</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Zipper</t>
+  </si>
+  <si>
+    <t>Universal item 1</t>
+  </si>
+  <si>
+    <t>Universal item 2</t>
+  </si>
+  <si>
+    <t>Main weapon</t>
+  </si>
+  <si>
+    <t>Secondary weapon</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Trousers</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Chestpiece</t>
+  </si>
+  <si>
+    <t>Helmet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +232,16 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +253,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -287,13 +339,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -311,10 +379,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE57841-23B3-45E4-BBC0-91228225D55D}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,40 +714,40 @@
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="12">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="12">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="12">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="12">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="12">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="12">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="12">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="12">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="12">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="12">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="12">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="12">
         <v>11</v>
       </c>
       <c r="N1">
@@ -787,28 +858,28 @@
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="7"/>
@@ -872,6 +943,47 @@
         <v>22</v>
       </c>
       <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
